--- a/InputData/trans/VTStFES/Veh Techs Subject to Fuel Econ Std.xlsx
+++ b/InputData/trans/VTStFES/Veh Techs Subject to Fuel Econ Std.xlsx
@@ -1,35 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deept\Dropbox\EPS\Input Data for India 2.0\trans\VTStFES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-1.5.0-us-wipM\InputData\trans\VTStFES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02487405-164C-4711-81AB-ACE36097F08B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="25875" windowHeight="10815"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="VTStFES" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>VTStFES Vehicle Technologies Subject to Fuel Economy Standard</t>
   </si>
@@ -37,6 +28,9 @@
     <t>Source:</t>
   </si>
   <si>
+    <t>none needed</t>
+  </si>
+  <si>
     <t>About</t>
   </si>
   <si>
@@ -125,55 +119,12 @@
   </si>
   <si>
     <t>(Boolean)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">India has adopted the CAFÉ (Corporate Average Fuel Efficiency) standards </t>
-  </si>
-  <si>
-    <t>for petrol, diesel, LPG and CNG passenger vehicles from 2017, to</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bring 18% improvement in fuel consumption of passenger vehicles </t>
-  </si>
-  <si>
-    <t>by 2022 (from 2012 levels).</t>
-  </si>
-  <si>
-    <t>Indian Fuel Efficiency Standards</t>
-  </si>
-  <si>
-    <t>Ministry of Heavy Industries &amp; Public Enterprises</t>
-  </si>
-  <si>
-    <t>Ministry of Heavy Industries &amp; Public Enterprises/
-Press Information Bureau</t>
-  </si>
-  <si>
-    <t>https://pib.gov.in/Pressreleaseshare.aspx?PRID=1520770</t>
-  </si>
-  <si>
-    <t>Formulation of National Automotive Policy for holistic development of automobile sector in India</t>
-  </si>
-  <si>
-    <t>under the National Auto Policy.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It is being phased for implementation, through a roadmap </t>
-  </si>
-  <si>
-    <t>https://dhi.nic.in/writereaddata/UploadFile/DHI-NAB-Auto%20Policy%20Draft%20Document_vDRAFT.pdf</t>
-  </si>
-  <si>
-    <t>Sec 8.1.2, p23</t>
-  </si>
-  <si>
-    <t>Draft National Auto Policy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -191,18 +142,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -217,20 +162,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -324,23 +262,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -376,23 +297,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -568,188 +472,104 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="61.140625" customWidth="1"/>
-    <col min="5" max="5" width="54.85546875" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="5">
-        <v>2018</v>
-      </c>
-      <c r="E5" s="5">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="E8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="B3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -759,15 +579,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -777,39 +595,39 @@
   <sheetData>
     <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" s="3">
         <v>0</v>
       </c>
       <c r="C2" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
@@ -829,7 +647,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="3">
         <v>0</v>
@@ -838,16 +656,16 @@
         <v>0</v>
       </c>
       <c r="D3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="3">
         <v>0</v>
       </c>
       <c r="G3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="3">
         <v>0</v>
@@ -855,7 +673,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="3">
         <v>0</v>
@@ -867,7 +685,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="3">
         <v>0</v>
@@ -881,7 +699,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -893,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="3">
         <v>0</v>
@@ -907,7 +725,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="3">
         <v>0</v>
@@ -919,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="3">
         <v>0</v>
@@ -933,13 +751,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" s="3">
         <v>0</v>
       </c>
       <c r="C7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="3">
         <v>1</v>

--- a/InputData/trans/VTStFES/Veh Techs Subject to Fuel Econ Std.xlsx
+++ b/InputData/trans/VTStFES/Veh Techs Subject to Fuel Econ Std.xlsx
@@ -1,21 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-1.5.0-us-wipM\InputData\trans\VTStFES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-india\InputData\trans\VTStFES\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E94025ED-D93B-4305-9B37-BDEE6195682D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="25875" windowHeight="10815"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="VTStFES" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -124,7 +136,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -262,6 +274,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -297,6 +326,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -472,10 +518,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -579,13 +627,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:H6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -728,24 +778,31 @@
         <v>16</v>
       </c>
       <c r="B6" s="3">
+        <f>B2</f>
         <v>0</v>
       </c>
       <c r="C6" s="3">
+        <f t="shared" ref="C6:H6" si="0">C2</f>
         <v>0</v>
       </c>
       <c r="D6" s="3">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="E6" s="3">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F6" s="3">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G6" s="3">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="H6" s="3">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
